--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H2">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I2">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J2">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N2">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q2">
-        <v>831.7161939917341</v>
+        <v>14.04343760842311</v>
       </c>
       <c r="R2">
-        <v>7485.445745925607</v>
+        <v>126.390938475808</v>
       </c>
       <c r="S2">
-        <v>0.1789733559289539</v>
+        <v>0.006738987327018824</v>
       </c>
       <c r="T2">
-        <v>0.1789733559289539</v>
+        <v>0.006738987327018825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H3">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I3">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J3">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q3">
-        <v>843.6216365308483</v>
+        <v>318.5849142025885</v>
       </c>
       <c r="R3">
-        <v>7592.594728777633</v>
+        <v>2867.264227823297</v>
       </c>
       <c r="S3">
-        <v>0.1815352358351491</v>
+        <v>0.1528785016357327</v>
       </c>
       <c r="T3">
-        <v>0.1815352358351491</v>
+        <v>0.1528785016357327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H4">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I4">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J4">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q4">
-        <v>461.9467716101481</v>
+        <v>174.4493813657662</v>
       </c>
       <c r="R4">
-        <v>4157.520944491333</v>
+        <v>1570.044432291896</v>
       </c>
       <c r="S4">
-        <v>0.09940429749097308</v>
+        <v>0.08371256404664426</v>
       </c>
       <c r="T4">
-        <v>0.09940429749097307</v>
+        <v>0.08371256404664427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>58.80901</v>
       </c>
       <c r="I5">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J5">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N5">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q5">
-        <v>654.34921181383</v>
+        <v>29.25703814025778</v>
       </c>
       <c r="R5">
-        <v>5889.14290632447</v>
+        <v>263.31334326232</v>
       </c>
       <c r="S5">
-        <v>0.1408065338077942</v>
+        <v>0.01403949764657674</v>
       </c>
       <c r="T5">
-        <v>0.1408065338077942</v>
+        <v>0.01403949764657674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>58.80901</v>
       </c>
       <c r="I6">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J6">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q6">
         <v>663.7157685768713</v>
@@ -818,10 +818,10 @@
         <v>5973.441917191841</v>
       </c>
       <c r="S6">
-        <v>0.1428220820314437</v>
+        <v>0.3184955334938341</v>
       </c>
       <c r="T6">
-        <v>0.1428220820314437</v>
+        <v>0.3184955334938342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>58.80901</v>
       </c>
       <c r="I7">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J7">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q7">
         <v>363.4346764998156</v>
@@ -880,10 +880,10 @@
         <v>3270.91208849834</v>
       </c>
       <c r="S7">
-        <v>0.07820591228595479</v>
+        <v>0.1744004386548809</v>
       </c>
       <c r="T7">
-        <v>0.07820591228595479</v>
+        <v>0.174400438654881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H8">
         <v>28.971414</v>
       </c>
       <c r="I8">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J8">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N8">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q8">
-        <v>322.355739639762</v>
+        <v>14.413059569872</v>
       </c>
       <c r="R8">
-        <v>2901.201656757858</v>
+        <v>129.717536128848</v>
       </c>
       <c r="S8">
-        <v>0.06936631623029538</v>
+        <v>0.00691635684176626</v>
       </c>
       <c r="T8">
-        <v>0.06936631623029538</v>
+        <v>0.006916356841766261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H9">
         <v>28.971414</v>
       </c>
       <c r="I9">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J9">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q9">
         <v>326.9700392808641</v>
       </c>
       <c r="R9">
-        <v>2942.730353527777</v>
+        <v>2942.730353527776</v>
       </c>
       <c r="S9">
-        <v>0.07035924710983771</v>
+        <v>0.1569022494682488</v>
       </c>
       <c r="T9">
-        <v>0.07035924710983768</v>
+        <v>0.1569022494682488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H10">
         <v>28.971414</v>
       </c>
       <c r="I10">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J10">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q10">
         <v>179.040872730764</v>
@@ -1066,10 +1066,10 @@
         <v>1611.367854576876</v>
       </c>
       <c r="S10">
-        <v>0.03852701927959819</v>
+        <v>0.08591587088529733</v>
       </c>
       <c r="T10">
-        <v>0.03852701927959819</v>
+        <v>0.08591587088529734</v>
       </c>
     </row>
   </sheetData>
